--- a/Задание_1/Автозаполнение и ссылки.xlsx
+++ b/Задание_1/Автозаполнение и ссылки.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KonDI\projects\excel\volsu-emm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ds/Projects/excel/volsu-emm/Задание_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB8AD72-34C3-46FE-A6F7-4DDC47638195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8472C1B3-B5A7-A944-B716-00E88306F93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Относительные ссылки" sheetId="2" r:id="rId2"/>
-    <sheet name="Абсолютные ссылки" sheetId="3" r:id="rId3"/>
+    <sheet name="Диаграмма1" sheetId="4" r:id="rId2"/>
+    <sheet name="Относительные ссылки" sheetId="2" r:id="rId3"/>
+    <sheet name="Абсолютные ссылки" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -349,7 +350,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -410,35 +411,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -635,7 +635,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B529-4E63-AF5E-C6CD90C54E8E}"/>
+              <c16:uniqueId val="{00000000-27DA-0F48-A6FC-867C71F87EAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -742,7 +742,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B529-4E63-AF5E-C6CD90C54E8E}"/>
+              <c16:uniqueId val="{00000001-27DA-0F48-A6FC-867C71F87EAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -941,11 +941,6 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1492,31 +1487,34 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E37EF4D7-97D8-7247-9439-C1D4F9E4C9E2}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6068934"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5991A8C6-4F8B-48C2-B175-B4F7BD72356F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA97815-0F74-88E6-1E4D-DFCA1F7E5916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1529,7 +1527,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1798,1178 +1796,1178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="12">
         <v>43871</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="12">
         <v>43871</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="12">
         <v>43871</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="12">
         <v>43871</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="12">
         <v>43872</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="12">
         <v>43871</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="12">
         <v>43872</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="12">
         <v>43878</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="12">
         <v>43873</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="12">
         <v>43871</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="12">
         <v>43873</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="12">
         <v>43885</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="12">
         <v>43874</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="12">
         <v>43871</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="12">
         <v>43874</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="12">
         <v>43892</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="12">
         <v>43875</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="12">
         <v>43871</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="12">
         <v>43875</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="12">
         <v>43899</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>27</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="12">
         <v>43876</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="12">
         <v>43871</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="12">
         <v>43878</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="12">
         <v>43906</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>30</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="12">
         <v>43877</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="12">
         <v>43871</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="12">
         <v>43879</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="12">
         <v>43913</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>33</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="12">
         <v>43878</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="12">
         <v>43871</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="12">
         <v>43880</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="12">
         <v>43920</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>36</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="12">
         <v>43879</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="12">
         <v>43871</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="12">
         <v>43881</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="12">
         <v>43927</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>39</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="12">
         <v>43880</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="12">
         <v>43871</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="12">
         <v>43882</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="12">
         <v>43934</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>42</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="12">
         <v>43881</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="12">
         <v>43871</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="12">
         <v>43885</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="12">
         <v>43941</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>45</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="12">
         <v>43882</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="12">
         <v>43871</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="12">
         <v>43886</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="12">
         <v>43948</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>48</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="12">
         <v>43883</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="12">
         <v>43871</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="12">
         <v>43887</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="12">
         <v>43955</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>51</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="12">
         <v>43884</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="12">
         <v>43871</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="12">
         <v>43888</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="12">
         <v>43962</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>54</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="12">
         <v>43885</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="12">
         <v>43871</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="12">
         <v>43889</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="12">
         <v>43969</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>57</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="12">
         <v>43886</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="12">
         <v>43871</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="12">
         <v>43892</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="12">
         <v>43976</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>60</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="12">
         <v>43887</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="12">
         <v>43871</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="12">
         <v>43893</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="12">
         <v>43983</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>63</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="12">
         <v>43888</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="12">
         <v>43871</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="12">
         <v>43894</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="12">
         <v>43990</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>66</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="12">
         <v>43889</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="12">
         <v>43871</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="12">
         <v>43895</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="12">
         <v>43997</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>69</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="12">
         <v>43890</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="12">
         <v>43871</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="12">
         <v>43896</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="12">
         <v>44004</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>72</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="12">
         <v>43891</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="12">
         <v>43871</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="12">
         <v>43899</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="12">
         <v>44011</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>12</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>75</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="12">
         <v>43892</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="12">
         <v>43871</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="12">
         <v>43900</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="12">
         <v>44018</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>12</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>78</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="12">
         <v>43893</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="12">
         <v>43871</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="12">
         <v>43901</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="12">
         <v>44025</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>12</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>81</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>24</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="12">
         <v>43894</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="12">
         <v>43871</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="12">
         <v>43902</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="12">
         <v>44032</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>12</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>84</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <v>25</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="12">
         <v>43895</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="12">
         <v>43871</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="12">
         <v>43903</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="12">
         <v>44039</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>12</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>87</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="12">
         <v>43896</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="12">
         <v>43871</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="12">
         <v>43906</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="12">
         <v>44046</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>12</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>90</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="12">
         <v>43897</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="12">
         <v>43871</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="12">
         <v>43907</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="12">
         <v>44053</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>93</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="12">
         <v>43898</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="12">
         <v>43871</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="12">
         <v>43908</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="12">
         <v>44060</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2988,315 +2986,315 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>2800</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>20</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <f>C4*D4</f>
         <v>56000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <f>E4*13%</f>
         <v>7280</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <f>E4-F4</f>
         <v>48720</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>2400</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>18</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <f t="shared" ref="E5:E13" si="0">C5*D5</f>
         <v>43200</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F13" si="1">E5*13%</f>
         <v>5616</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G13" si="2">E5-F5</f>
         <v>37584</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>3000</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>22</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>66000</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>8580</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <f t="shared" si="2"/>
         <v>57420</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>2600</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>19</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>49400</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>6422</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>42978</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>3200</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>21</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>67200</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>8736</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>58464</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>2200</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>17</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>37400</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>4862</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <f t="shared" si="2"/>
         <v>32538</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>3100</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>23</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>71300</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>9269</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
         <v>62031</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>2500</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>20</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
         <v>43500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>2900</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>19</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>55100</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>7163</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
         <v>47937</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>2300</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>18</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>41400</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <f t="shared" si="1"/>
         <v>5382</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
         <v>36018</v>
       </c>
@@ -3306,7 +3304,6 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3314,178 +3311,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF451E80-DA7B-484E-B447-768063C8DC79}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8">
+      <c r="B3" s="11"/>
+      <c r="C3" s="5">
         <v>61.89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>187</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>20</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <f>C6*$C$3</f>
         <v>1237.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>190</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>20</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <f t="shared" ref="D7:D13" si="0">C7*$C$3</f>
         <v>1237.8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>1450</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>140</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>8664.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>1025</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>120</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>7426.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>310</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>30</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>1856.7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>720</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>75</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>4641.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>482</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>50</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>3094.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>1020</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>110</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>6807.9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <f>SUM(C6:C13)</f>
         <v>565</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <f>SUM(D6:D13)</f>
         <v>34967.85</v>
       </c>
